--- a/HAWC2/IEA-22-280-RWT-Monopile/htc/DLC/dlc10_iec61400-1ed3.xlsx
+++ b/HAWC2/IEA-22-280-RWT-Monopile/htc/DLC/dlc10_iec61400-1ed3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkba\Desktop\iea_22mw_rwt_dlb\02_local\htc\DLC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkba\Desktop\IEA_22MW_RWT_DLB\02_local\htc\DLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="AJ2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="s">
         <v>29</v>
@@ -884,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="AJ3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="s">
         <v>29</v>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="AJ4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="s">
         <v>29</v>
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="AJ5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="s">
         <v>29</v>
@@ -1223,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="AJ6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="s">
         <v>29</v>
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="AJ7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="s">
         <v>29</v>
@@ -1449,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="AJ8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="s">
         <v>29</v>
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="AJ9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="s">
         <v>29</v>
@@ -1675,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="AJ10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="s">
         <v>29</v>
@@ -1788,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="AJ11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="s">
         <v>29</v>
@@ -1901,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="AJ12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="s">
         <v>29</v>
@@ -2014,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="AJ13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="s">
         <v>29</v>
@@ -2127,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="AJ14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="s">
         <v>29</v>
@@ -2240,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="AJ15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="s">
         <v>29</v>
@@ -2353,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="AJ16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="s">
         <v>29</v>
@@ -2466,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="AJ17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="s">
         <v>29</v>
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="AJ18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="s">
         <v>29</v>
@@ -2692,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="AJ19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="s">
         <v>29</v>
@@ -2805,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="AJ20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="s">
         <v>29</v>
@@ -2918,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="AJ21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="s">
         <v>29</v>
@@ -3031,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="AJ22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="s">
         <v>29</v>
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="AJ23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="s">
         <v>29</v>
@@ -3257,7 +3257,7 @@
         <v>2</v>
       </c>
       <c r="AJ24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="s">
         <v>29</v>
